--- a/PinOut.xlsx
+++ b/PinOut.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>PSoC Terminal</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>Entrada Pull-up</t>
+  </si>
+  <si>
+    <t>Led Alimentacion</t>
+  </si>
+  <si>
+    <t>Reset PSoCdT</t>
+  </si>
+  <si>
+    <t>UART TX (envia)</t>
+  </si>
+  <si>
+    <t>UART RX (recibe)</t>
   </si>
 </sst>
 </file>
@@ -849,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -958,11 +970,15 @@
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D7" s="22">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
@@ -980,11 +996,15 @@
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D8" s="22">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1028,11 +1048,15 @@
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D10" s="22">
         <v>26</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D19" s="22">
         <v>17</v>
@@ -1247,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D21" s="22">
         <v>18</v>
@@ -1466,9 +1490,7 @@
       <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="23">
         <v>5</v>
       </c>

--- a/PinOut.xlsx
+++ b/PinOut.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$J$31</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -859,10 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1509,8 +1515,12 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.59055118110236227" footer="0"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CPINOUT PSoCs</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/PinOut.xlsx
+++ b/PinOut.xlsx
@@ -7,13 +7,8 @@
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="PinOut" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$J$31</definedName>
-  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -282,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,13 +286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,46 +482,64 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,40 +551,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,13 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -878,7 +876,7 @@
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1"/>
@@ -888,663 +886,633 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="27" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="2:10" ht="4.5" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="3.75" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="22">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
         <v>24</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="13"/>
+      <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="12">
         <v>24</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="12">
         <v>4</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="12">
         <v>4</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="12">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="12">
         <v>25</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="12">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="12">
         <v>3</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="12">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="12">
         <v>26</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="12">
         <v>2</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="22">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12">
         <v>27</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="13"/>
+      <c r="G12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="12">
         <v>27</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="3.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="22">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12">
         <v>15</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="13"/>
+      <c r="G15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="22">
+      <c r="H15" s="11"/>
+      <c r="I15" s="12">
         <v>15</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="22">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12">
         <v>13</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="13"/>
+      <c r="G16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="22">
+      <c r="H16" s="11"/>
+      <c r="I16" s="12">
         <v>13</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="22">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12">
         <v>16</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="13"/>
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="22">
+      <c r="H17" s="11"/>
+      <c r="I17" s="12">
         <v>16</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="22">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12">
         <v>12</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="6" t="s">
+      <c r="E18" s="13"/>
+      <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="22">
+      <c r="H18" s="11"/>
+      <c r="I18" s="12">
         <v>12</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="13"/>
+      <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="12">
         <v>17</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="22">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12">
         <v>11</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="13"/>
+      <c r="G20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="22">
+      <c r="H20" s="11"/>
+      <c r="I20" s="12">
         <v>11</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="12">
         <v>18</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="13"/>
+      <c r="G21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="12">
         <v>18</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="22">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
         <v>10</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="13"/>
+      <c r="G22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="22">
+      <c r="H22" s="11"/>
+      <c r="I22" s="12">
         <v>10</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10" ht="3.75" customHeight="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="12">
         <v>20</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="12">
         <v>20</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="12">
         <v>8</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="22">
+      <c r="H25" s="11"/>
+      <c r="I25" s="12">
         <v>8</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="12">
         <v>21</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="12">
         <v>21</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="12">
         <v>7</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="22">
+      <c r="H27" s="11"/>
+      <c r="I27" s="12">
         <v>7</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="12">
         <v>22</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="12">
         <v>22</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="12">
         <v>6</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="22">
+      <c r="H29" s="11"/>
+      <c r="I29" s="12">
         <v>6</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="12">
         <v>23</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="12">
         <v>23</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="23">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16">
         <v>5</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="G31" s="8" t="s">
+      <c r="E31" s="17"/>
+      <c r="G31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="23">
+      <c r="H31" s="15"/>
+      <c r="I31" s="16">
         <v>5</v>
       </c>
-      <c r="J31" s="10"/>
+      <c r="J31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.59055118110236227" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;CPINOUT PSoCs</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
